--- a/media/excel_files/FACES_LOGIN_CREDENTIALS_Responses.xlsx
+++ b/media/excel_files/FACES_LOGIN_CREDENTIALS_Responses.xlsx
@@ -1,44 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshit kandpal\Desktop\FACES2024-backend\media\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC24FF-4776-4FCD-8D8D-614E3E0D98DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C3">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D3">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E3">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G3">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Responder updated this value.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -46,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
@@ -72,79 +121,60 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Aniket Kittur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5021125@it.fcrit.ac.in </t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pradeep Kumawat </t>
-  </si>
-  <si>
-    <t>pradeepkumawat988@gmail.com</t>
-  </si>
-  <si>
-    <t>Mech B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neil </t>
-  </si>
-  <si>
-    <t>5021113@it.fcrit.ac.in</t>
-  </si>
-  <si>
-    <t>Avvanti Kamod</t>
-  </si>
-  <si>
-    <t>kamodavanti@gmail.com</t>
-  </si>
-  <si>
     <t>Comp A</t>
   </si>
   <si>
-    <t>Rohit Mandve</t>
-  </si>
-  <si>
-    <t>rohitmandve1611@gmail.com</t>
-  </si>
-  <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharon Edward </t>
-  </si>
-  <si>
-    <t>sharon03.edward@gmail.com</t>
-  </si>
-  <si>
     <t>Comp B</t>
   </si>
   <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>stanbennett.19@gmail.com</t>
+    <t>sojithsunny29034@gmail.com</t>
+  </si>
+  <si>
+    <t>omabd1718@gmail.com</t>
+  </si>
+  <si>
+    <t>atharvamagar2@gmail.com</t>
+  </si>
+  <si>
+    <t>harshitheroh5@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>jkl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -154,40 +184,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -377,26 +414,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="18.88"/>
+    <col min="1" max="14" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,169 +462,133 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45171.90466402778</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>45171.904664027781</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1211111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9420614075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45171.916384155091</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2122222</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8055992005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45171.907268981478</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3433333</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9762441244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45171.908240219913</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4344444</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>5021125.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>9.823512772E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45171.91638415509</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2021204.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>7.798058293E9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45171.90726898148</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5021113.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9.356062895E9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45171.90824021991</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1021157.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9.921810604E9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45171.90924677083</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4021121.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.222041448E9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45171.9101659375</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1021242.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9.699548056E9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>45171.92307386574</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5021136.0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.987214994E9</v>
-      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9175691050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0C4E9983-F7C2-43E7-94BE-87DDA71A80AD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{560E2F6C-D8D1-4674-8611-C4374C50B356}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E3169042-3E4E-4656-B9BE-B6315A90AF84}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D79896D3-6002-43AA-AB5D-CAFBEEFABF8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>